--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/154.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/154.xlsx
@@ -479,13 +479,13 @@
         <v>-5.114272881996775</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.2834468103466</v>
+        <v>-11.29261142233581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6281921611126081</v>
+        <v>0.578349764194157</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.185916238658154</v>
+        <v>-5.278426450537791</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.898102271770611</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47284006325501</v>
+        <v>-11.48703211953544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7030146718530726</v>
+        <v>0.6506585527890101</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.07104437352485</v>
+        <v>-5.162166801303264</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.672581734857638</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.01758459989355</v>
+        <v>-12.03442130134801</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7146537290793671</v>
+        <v>0.6677178233917791</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.765587855924539</v>
+        <v>-4.854995192030686</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.437274624081913</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.70481266835859</v>
+        <v>-12.72492244552349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7282173548233953</v>
+        <v>0.6790295730470305</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.852730223639067</v>
+        <v>-4.93633766958633</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.163451374472688</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.30417829245281</v>
+        <v>-13.33117462091245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7607648196879263</v>
+        <v>0.7116163148200866</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.146976546652983</v>
+        <v>-4.232233622758303</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.828199512603188</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.58195768184572</v>
+        <v>-13.61767348399794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8768935458940366</v>
+        <v>0.8213559972394345</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.15872034230201</v>
+        <v>-4.248127678408158</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.415930874827037</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.15900092959479</v>
+        <v>-14.19363007061116</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9577647005473784</v>
+        <v>0.9014416137222729</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.747661309980337</v>
+        <v>-3.827498172709183</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.917236222297383</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.94993312886915</v>
+        <v>-14.98879108370339</v>
       </c>
       <c r="F9" t="n">
-        <v>1.180360033462405</v>
+        <v>1.126288822726076</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.380448399875605</v>
+        <v>-3.459237878377112</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.340753444889105</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.54461170854603</v>
+        <v>-15.58608812394862</v>
       </c>
       <c r="F10" t="n">
-        <v>1.227662523629561</v>
+        <v>1.169310129863988</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.678714059861929</v>
+        <v>-2.763971135967249</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.700415925896698</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.14768245434446</v>
+        <v>-16.19346623738197</v>
       </c>
       <c r="F11" t="n">
-        <v>1.172020236552226</v>
+        <v>1.118394164112515</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.232698578952847</v>
+        <v>-2.321307284585649</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.029563791667347</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.61636071147257</v>
+        <v>-16.66935835337587</v>
       </c>
       <c r="F12" t="n">
-        <v>1.200129410753412</v>
+        <v>1.149553844875824</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.809555351108261</v>
+        <v>-1.89973513308207</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3609529794731705</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.41162646298753</v>
+        <v>-17.46932424161102</v>
       </c>
       <c r="F13" t="n">
-        <v>1.419883713951783</v>
+        <v>1.370525732238476</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.018361305777071</v>
+        <v>-1.107978118728686</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2606611730572145</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.22539163841786</v>
+        <v>-18.28082444864973</v>
       </c>
       <c r="F14" t="n">
-        <v>1.623678499986091</v>
+        <v>1.575551194739906</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8214661633403525</v>
+        <v>-0.9032406868897735</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7982463315097283</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.0673707264721</v>
+        <v>-19.12163832175106</v>
       </c>
       <c r="F15" t="n">
-        <v>1.673612543024435</v>
+        <v>1.625223391721415</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3893939849577088</v>
+        <v>-0.4704484318508349</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.215854375899408</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.06423175714397</v>
+        <v>-20.11226741627026</v>
       </c>
       <c r="F16" t="n">
-        <v>1.996652023341184</v>
+        <v>1.948603271912049</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1802782962914759</v>
+        <v>0.0944582511639615</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.488093585559559</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.77501287842128</v>
+        <v>-20.82790578190185</v>
       </c>
       <c r="F17" t="n">
-        <v>2.058107292880246</v>
+        <v>2.01346254018996</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2776588448282344</v>
+        <v>0.2019591497973743</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.598667994636429</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.68377580327117</v>
+        <v>-21.73914315198883</v>
       </c>
       <c r="F18" t="n">
-        <v>2.178268448361607</v>
+        <v>2.13171221945643</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8385069139620956</v>
+        <v>0.7593639432838616</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.540223739320361</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.69128087615335</v>
+        <v>-22.74416068733109</v>
       </c>
       <c r="F19" t="n">
-        <v>2.277612842324625</v>
+        <v>2.23168504395585</v>
       </c>
       <c r="G19" t="n">
-        <v>1.053692003468705</v>
+        <v>0.9836089063569458</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.318211217561556</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.04678926751758</v>
+        <v>-23.10777321415434</v>
       </c>
       <c r="F20" t="n">
-        <v>2.577819346485404</v>
+        <v>2.533357886034902</v>
       </c>
       <c r="G20" t="n">
-        <v>1.659760886617889</v>
+        <v>1.578064916885518</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.943647258490468</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.00361403609945</v>
+        <v>-24.05773761604715</v>
       </c>
       <c r="F21" t="n">
-        <v>2.702431884932952</v>
+        <v>2.660117562148494</v>
       </c>
       <c r="G21" t="n">
-        <v>1.76444694014033</v>
+        <v>1.690239767633427</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4385732775163368</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.33979818846929</v>
+        <v>-24.40718427119566</v>
       </c>
       <c r="F22" t="n">
-        <v>2.785882223246114</v>
+        <v>2.743279869799138</v>
       </c>
       <c r="G22" t="n">
-        <v>2.034619701582189</v>
+        <v>1.958579606677444</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.1735023773826812</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.87696228176247</v>
+        <v>-24.94244998057679</v>
       </c>
       <c r="F23" t="n">
-        <v>2.720289786009067</v>
+        <v>2.683997922531802</v>
       </c>
       <c r="G23" t="n">
-        <v>2.580542545476483</v>
+        <v>2.498898944955479</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.8629255892742936</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.41454532874658</v>
+        <v>-25.47221692276439</v>
       </c>
       <c r="F24" t="n">
-        <v>2.602668537279</v>
+        <v>2.570749502950872</v>
       </c>
       <c r="G24" t="n">
-        <v>2.370384900261096</v>
+        <v>2.295811143274624</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.599346949319604</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.5583511831601</v>
+        <v>-25.61638936165748</v>
       </c>
       <c r="F25" t="n">
-        <v>2.723589046325182</v>
+        <v>2.699446839885039</v>
       </c>
       <c r="G25" t="n">
-        <v>2.278215088255345</v>
+        <v>2.2059717611747</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.351452136422508</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.63659078494226</v>
+        <v>-25.69383033296629</v>
       </c>
       <c r="F26" t="n">
-        <v>2.88991366162647</v>
+        <v>2.862576933292946</v>
       </c>
       <c r="G26" t="n">
-        <v>2.279759979990668</v>
+        <v>2.207516652910024</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.088207817010353</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.39073042987749</v>
+        <v>-25.4536782219405</v>
       </c>
       <c r="F27" t="n">
-        <v>2.589052542323605</v>
+        <v>2.56367965941634</v>
       </c>
       <c r="G27" t="n">
-        <v>1.987853995831544</v>
+        <v>1.927969802633489</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.78363753660981</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.48767893242047</v>
+        <v>-25.54436860372514</v>
       </c>
       <c r="F28" t="n">
-        <v>2.855926043449349</v>
+        <v>2.829322484074962</v>
       </c>
       <c r="G28" t="n">
-        <v>1.940774074812697</v>
+        <v>1.881727788996512</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.409684751450043</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.70312586798391</v>
+        <v>-25.75912164723797</v>
       </c>
       <c r="F29" t="n">
-        <v>2.683369491995399</v>
+        <v>2.663312084041875</v>
       </c>
       <c r="G29" t="n">
-        <v>1.84150823466673</v>
+        <v>1.782749979513063</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.94562521064505</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.35542048911335</v>
+        <v>-25.41212325272086</v>
       </c>
       <c r="F30" t="n">
-        <v>2.656844486438062</v>
+        <v>2.633304525928639</v>
       </c>
       <c r="G30" t="n">
-        <v>1.974683139172767</v>
+        <v>1.913018392788238</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.368403787844334</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.58665355855004</v>
+        <v>-24.65063564253755</v>
       </c>
       <c r="F31" t="n">
-        <v>2.569021318975764</v>
+        <v>2.545271881620873</v>
       </c>
       <c r="G31" t="n">
-        <v>1.443004720770272</v>
+        <v>1.3867863723679</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.66781709548277</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.71184215832262</v>
+        <v>-24.77431862748334</v>
       </c>
       <c r="F32" t="n">
-        <v>2.548832987993822</v>
+        <v>2.526759365402672</v>
       </c>
       <c r="G32" t="n">
-        <v>1.551251880665663</v>
+        <v>1.48880159611063</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.835271982805208</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.14082136988074</v>
+        <v>-24.20548425361602</v>
       </c>
       <c r="F33" t="n">
-        <v>2.604972782579144</v>
+        <v>2.57839540781044</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7861507948980332</v>
+        <v>0.7339779680737547</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.876878131986869</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.49685027000476</v>
+        <v>-23.5592089084399</v>
       </c>
       <c r="F34" t="n">
-        <v>2.583684698158497</v>
+        <v>2.55276067884634</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7180839124238994</v>
+        <v>0.6664740546218152</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.800199017584768</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.85857432186493</v>
+        <v>-22.92740055790388</v>
       </c>
       <c r="F35" t="n">
-        <v>2.459543482613251</v>
+        <v>2.426289033395266</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7726002614568467</v>
+        <v>0.7172198204363454</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.624138709086417</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.05555792706766</v>
+        <v>-22.12302256361108</v>
       </c>
       <c r="F36" t="n">
-        <v>2.313957075013257</v>
+        <v>2.281645271599877</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7910473161608387</v>
+        <v>0.7317391842878196</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.369583821231557</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.10603866347148</v>
+        <v>-21.18234060443306</v>
       </c>
       <c r="F37" t="n">
-        <v>2.356297582403399</v>
+        <v>2.320189011165918</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7286755854228557</v>
+        <v>0.6708861606794768</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.064561290883069</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.98232949392001</v>
+        <v>-21.0472149468036</v>
       </c>
       <c r="F38" t="n">
-        <v>2.185181184262039</v>
+        <v>2.151219750690601</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4333394179191991</v>
+        <v>0.380721452798302</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.735331294403514</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.12532044220346</v>
+        <v>-20.19806127679209</v>
       </c>
       <c r="F39" t="n">
-        <v>2.427467340651022</v>
+        <v>2.38740489395534</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2671064487378031</v>
+        <v>0.2197908662678051</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.410126903718576</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.6075853263274</v>
+        <v>-19.68129499132632</v>
       </c>
       <c r="F40" t="n">
-        <v>2.263682632101029</v>
+        <v>2.227076553355563</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.05326220179923372</v>
+        <v>-0.1010621994743756</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.11091593477731</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.65195195730414</v>
+        <v>-18.73803384848848</v>
       </c>
       <c r="F41" t="n">
-        <v>2.483476212207926</v>
+        <v>2.445141949487352</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1173359319066411</v>
+        <v>-0.1682518976581138</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.859233651427453</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.38506536387555</v>
+        <v>-18.46207428919058</v>
       </c>
       <c r="F42" t="n">
-        <v>2.489969994417422</v>
+        <v>2.459517298007567</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3644007788328537</v>
+        <v>-0.4137718528490028</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.66744535758572</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.46470265870789</v>
+        <v>-17.54553453645271</v>
       </c>
       <c r="F43" t="n">
-        <v>2.840293833856328</v>
+        <v>2.808610460979351</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3676214853319184</v>
+        <v>-0.4183934357521321</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.54687249186241</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.01485113306618</v>
+        <v>-17.09777777926568</v>
       </c>
       <c r="F44" t="n">
-        <v>2.775067981098849</v>
+        <v>2.743044208347987</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.6954920253972643</v>
+        <v>-0.7441430227571183</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.497539617589625</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.28495524963995</v>
+        <v>-16.37495173937398</v>
       </c>
       <c r="F45" t="n">
-        <v>2.722463108280794</v>
+        <v>2.693450565183528</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7404248087500681</v>
+        <v>-0.7901624672457854</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.518629030985106</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.81149830197461</v>
+        <v>-15.89881086962609</v>
       </c>
       <c r="F46" t="n">
-        <v>2.887111908818341</v>
+        <v>2.855349982124313</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.903358517615349</v>
+        <v>-0.951250161410383</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.599698460799768</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.07870901962036</v>
+        <v>-15.16989690891299</v>
       </c>
       <c r="F47" t="n">
-        <v>2.862524564081579</v>
+        <v>2.830815006598919</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.234436671876918</v>
+        <v>-1.28679279094098</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.731148656773653</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.42650286125694</v>
+        <v>-14.52265273332658</v>
       </c>
       <c r="F48" t="n">
-        <v>2.727202521909498</v>
+        <v>2.697456809853097</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.273582657373679</v>
+        <v>-1.322979915995511</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.896537091366258</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.81919020933779</v>
+        <v>-13.91671477320581</v>
       </c>
       <c r="F49" t="n">
-        <v>3.123742190379697</v>
+        <v>3.087528880719483</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.459283880880721</v>
+        <v>-1.516444875087697</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.081664122807425</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.22394866063872</v>
+        <v>-13.31724441068886</v>
       </c>
       <c r="F50" t="n">
-        <v>3.178625123892213</v>
+        <v>3.140605076439841</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.41710048112468</v>
+        <v>-1.479511488771188</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.271371041954235</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.36949260797631</v>
+        <v>-12.46051029733199</v>
       </c>
       <c r="F51" t="n">
-        <v>3.165061498148185</v>
+        <v>3.125287082115021</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.425204616583708</v>
+        <v>-1.495929236534713</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.453249560772233</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.34840090809828</v>
+        <v>-12.42478140287692</v>
       </c>
       <c r="F52" t="n">
-        <v>3.127381850569697</v>
+        <v>3.084910420151138</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.520398750545899</v>
+        <v>-1.595181984377838</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.618176259008647</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.54806843538357</v>
+        <v>-11.6288741285227</v>
       </c>
       <c r="F53" t="n">
-        <v>3.401665595103859</v>
+        <v>3.35791111900681</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.665880419723159</v>
+        <v>-1.739760284659019</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.758908094469916</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.31084900019434</v>
+        <v>-11.38971703251289</v>
       </c>
       <c r="F54" t="n">
-        <v>3.05883055289042</v>
+        <v>3.018218229475385</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.732088195193767</v>
+        <v>-1.81007904322193</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.874047485476367</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.73144913793375</v>
+        <v>-10.81226792337572</v>
       </c>
       <c r="F55" t="n">
-        <v>2.940528504412583</v>
+        <v>2.901644364972656</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.119803651548643</v>
+        <v>-2.20283503617087</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.961946516925925</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.17739597397474</v>
+        <v>-10.25972037424352</v>
       </c>
       <c r="F56" t="n">
-        <v>3.162731068242358</v>
+        <v>3.117745915678187</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.394611088196474</v>
+        <v>-2.475115658370247</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.027212325076187</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.580439333603401</v>
+        <v>-9.656623443839406</v>
       </c>
       <c r="F57" t="n">
-        <v>3.185485490581278</v>
+        <v>3.135577632148618</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.879602354665374</v>
+        <v>-2.958169264018572</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.071895959288319</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.448468920958803</v>
+        <v>-9.521366863181534</v>
       </c>
       <c r="F58" t="n">
-        <v>3.145501597702646</v>
+        <v>3.09706007718826</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.702947912421964</v>
+        <v>-2.784133282343507</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.103080710482893</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.851158788410734</v>
+        <v>-8.921804854544689</v>
       </c>
       <c r="F59" t="n">
-        <v>3.251235035452426</v>
+        <v>3.196221178911493</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.070435760886373</v>
+        <v>-3.152249561344319</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.123995001120701</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.738695907000308</v>
+        <v>-8.80538809767606</v>
       </c>
       <c r="F60" t="n">
-        <v>3.048251972194305</v>
+        <v>2.996275529912653</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.784526051428759</v>
+        <v>-2.869233250814727</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.14079150502935</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.301779576566226</v>
+        <v>-8.365172506925862</v>
       </c>
       <c r="F61" t="n">
-        <v>3.112587548358547</v>
+        <v>3.058123568536967</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.246121372719495</v>
+        <v>-3.327961357783125</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.153133370793193</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.929971268164047</v>
+        <v>-7.991020676315015</v>
       </c>
       <c r="F62" t="n">
-        <v>2.923482326112655</v>
+        <v>2.871662991465104</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.36767031230208</v>
+        <v>-3.441785838689091</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.162310913271536</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.742240737716537</v>
+        <v>-7.797516440314304</v>
       </c>
       <c r="F63" t="n">
-        <v>3.210491789008974</v>
+        <v>3.153749748492934</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.346473874001326</v>
+        <v>-3.422068830609452</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.163205003124245</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.480329219367806</v>
+        <v>-7.527631709534963</v>
       </c>
       <c r="F64" t="n">
-        <v>3.067890426456894</v>
+        <v>3.010572324615817</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.675876213499153</v>
+        <v>-3.75018812442879</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.152439613859272</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.195479986440373</v>
+        <v>-7.242572999762061</v>
       </c>
       <c r="F65" t="n">
-        <v>3.168177466224516</v>
+        <v>3.109078811196964</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.713084538175339</v>
+        <v>-3.78500055768494</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.120162334802544</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.981748142549194</v>
+        <v>-7.025358603314984</v>
       </c>
       <c r="F66" t="n">
-        <v>3.015940168780925</v>
+        <v>2.958491143911431</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.767443779574185</v>
+        <v>-3.837134107600694</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.060019364170333</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.080961613483795</v>
+        <v>-7.116193000430879</v>
       </c>
       <c r="F67" t="n">
-        <v>3.016411491683227</v>
+        <v>2.956684406119273</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.654431021444406</v>
+        <v>-3.725378210543719</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.962848742866322</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.770608574620678</v>
+        <v>-6.809217775700928</v>
       </c>
       <c r="F68" t="n">
-        <v>2.982266765872005</v>
+        <v>2.924346418100209</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.631506399168544</v>
+        <v>-3.697426143976634</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.826918009182018</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.947930724309016</v>
+        <v>-6.978043020844986</v>
       </c>
       <c r="F69" t="n">
-        <v>2.742101562543382</v>
+        <v>2.683317122784032</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.673035183782499</v>
+        <v>-3.739504805309942</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.649124585263462</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.698888939653703</v>
+        <v>-6.732235034991579</v>
       </c>
       <c r="F70" t="n">
-        <v>2.807144123061078</v>
+        <v>2.74663149932662</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.479334563239162</v>
+        <v>-3.546039846217756</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.435090681402373</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.619641230552735</v>
+        <v>-6.650722357498992</v>
       </c>
       <c r="F71" t="n">
-        <v>2.712512958121082</v>
+        <v>2.655744732999358</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.471518458442651</v>
+        <v>-3.539022371894591</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.188167595744924</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.790783813299778</v>
+        <v>-6.82204823248582</v>
       </c>
       <c r="F72" t="n">
-        <v>2.862131794996327</v>
+        <v>2.797482003563884</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.348765026998628</v>
+        <v>-3.409068173887618</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.919264195091004</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.936488051625347</v>
+        <v>-6.969402100969447</v>
       </c>
       <c r="F73" t="n">
-        <v>2.615551363275258</v>
+        <v>2.558259446039865</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.26959587171471</v>
+        <v>-3.323968205416398</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.635172729532667</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.208572289282098</v>
+        <v>-7.241892200014291</v>
       </c>
       <c r="F74" t="n">
-        <v>2.74959035976885</v>
+        <v>2.690832104615183</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.238815867733812</v>
+        <v>-3.290897048438199</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.347953387199802</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.377790303511408</v>
+        <v>-7.412484906041982</v>
       </c>
       <c r="F75" t="n">
-        <v>2.301938341004552</v>
+        <v>2.247448176577288</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.973749104400226</v>
+        <v>-3.026838392423425</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.064040554423764</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.815033941516533</v>
+        <v>-7.847895621649266</v>
       </c>
       <c r="F76" t="n">
-        <v>2.550980125659865</v>
+        <v>2.491436332335695</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.900523854606452</v>
+        <v>-2.952002789380119</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.792444265403134</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.134813438425693</v>
+        <v>-8.172074132313245</v>
       </c>
       <c r="F77" t="n">
-        <v>2.397067013452534</v>
+        <v>2.342000787700234</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.772337117483112</v>
+        <v>-2.82519074405516</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.538769327258304</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.483958970608843</v>
+        <v>-8.529153600018482</v>
       </c>
       <c r="F78" t="n">
-        <v>2.293140313494912</v>
+        <v>2.23820501077103</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.610267500605385</v>
+        <v>-2.657491436955491</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.30844992458499</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.942818000605659</v>
+        <v>-8.992424736072959</v>
       </c>
       <c r="F79" t="n">
-        <v>2.403691718690447</v>
+        <v>2.350144200067787</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.323690083702843</v>
+        <v>-2.375365403019136</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.104953247508221</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.338964899990605</v>
+        <v>-9.39399184883438</v>
       </c>
       <c r="F80" t="n">
-        <v>2.113854318380315</v>
+        <v>2.063422767833987</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.771391288324629</v>
+        <v>-1.829468743730526</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.930444927461483</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.976874263650867</v>
+        <v>-10.03739997968817</v>
       </c>
       <c r="F81" t="n">
-        <v>2.257581618976784</v>
+        <v>2.20680966855657</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.876574849355056</v>
+        <v>-1.928446553213975</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.787838850555154</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.63172506718832</v>
+        <v>-10.69599518183835</v>
       </c>
       <c r="F82" t="n">
-        <v>2.237550395628944</v>
+        <v>2.185207368867723</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.649384118142584</v>
+        <v>-1.705615558847797</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.678117335487409</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.23183695254452</v>
+        <v>-11.29727228214747</v>
       </c>
       <c r="F83" t="n">
-        <v>1.918360052347662</v>
+        <v>1.86957813195939</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.246193559828788</v>
+        <v>-1.303145077190296</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.604794005075843</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.11158733429714</v>
+        <v>-12.18822967513261</v>
       </c>
       <c r="F84" t="n">
-        <v>1.977851476460465</v>
+        <v>1.926293987869748</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.099481214184405</v>
+        <v>-1.155804301009511</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.567791035853597</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.7412747317728</v>
+        <v>-12.8237955165842</v>
       </c>
       <c r="F85" t="n">
-        <v>1.898669228873706</v>
+        <v>1.847923463059176</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.7985546333673319</v>
+        <v>-0.8527829517377613</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.568332819693714</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.53576803742011</v>
+        <v>-13.61873396052812</v>
       </c>
       <c r="F86" t="n">
-        <v>1.865283856627304</v>
+        <v>1.81223384551263</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.5936208169857937</v>
+        <v>-0.644222567469065</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.603495103683481</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.35854071720554</v>
+        <v>-14.44725416126107</v>
       </c>
       <c r="F87" t="n">
-        <v>1.881623050573779</v>
+        <v>1.828546854853421</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2031952539426806</v>
+        <v>-0.2523044819019951</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.671733637749546</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.55166845977772</v>
+        <v>-15.64334076427548</v>
       </c>
       <c r="F88" t="n">
-        <v>1.901837566161404</v>
+        <v>1.852348661419679</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07408662794223574</v>
+        <v>0.02548799979374857</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.769223879069101</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.48445576034218</v>
+        <v>-16.5882253526657</v>
       </c>
       <c r="F89" t="n">
-        <v>1.643264585037314</v>
+        <v>1.593513834238755</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2573919600292424</v>
+        <v>0.2117129154144602</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.89308694608914</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.88348614970618</v>
+        <v>-17.98957307963269</v>
       </c>
       <c r="F90" t="n">
-        <v>1.603359245975733</v>
+        <v>1.55426311031926</v>
       </c>
       <c r="G90" t="n">
-        <v>0.717717327944331</v>
+        <v>0.6719728218153401</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.039980545957583</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.02645728009171</v>
+        <v>-19.14574125128268</v>
       </c>
       <c r="F91" t="n">
-        <v>1.292155207427904</v>
+        <v>1.247994869942762</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6868456778435409</v>
+        <v>0.6455787392864204</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.205450021133506</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.30594185220792</v>
+        <v>-20.42986049860485</v>
       </c>
       <c r="F92" t="n">
-        <v>1.081879731486941</v>
+        <v>1.040036731604785</v>
       </c>
       <c r="G92" t="n">
-        <v>1.18699783100316</v>
+        <v>1.142693478186759</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.385609471216671</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.89406437151497</v>
+        <v>-22.03011958264619</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9425121677367676</v>
+        <v>0.901624905962057</v>
       </c>
       <c r="G93" t="n">
-        <v>1.18396041674388</v>
+        <v>1.141004571120176</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.573671586684898</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.52029858439429</v>
+        <v>-23.6690271446763</v>
       </c>
       <c r="F94" t="n">
-        <v>1.046006821700612</v>
+        <v>1.005551605919679</v>
       </c>
       <c r="G94" t="n">
-        <v>1.348871063338261</v>
+        <v>1.299971312224414</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.765566915194309</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.18353164510433</v>
+        <v>-25.34722470753443</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3204575828178369</v>
+        <v>0.2885909177010756</v>
       </c>
       <c r="G95" t="n">
-        <v>1.326587963901644</v>
+        <v>1.275344690579128</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.95312684108527</v>
       </c>
       <c r="E96" t="n">
-        <v>-26.94690773025073</v>
+        <v>-27.12042001981212</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4885758436084414</v>
+        <v>0.452270887828335</v>
       </c>
       <c r="G96" t="n">
-        <v>1.034852179679462</v>
+        <v>0.9858215055371974</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.131765007024949</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.8555167308204</v>
+        <v>-29.03603340240211</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1422374919116041</v>
+        <v>-0.1703597584156317</v>
       </c>
       <c r="G97" t="n">
-        <v>1.212213606276325</v>
+        <v>1.158364964688305</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.293216858850212</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.0803833988348</v>
+        <v>-31.26632028379299</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4126066378960891</v>
+        <v>-0.4437925032650806</v>
       </c>
       <c r="G98" t="n">
-        <v>1.087561790920251</v>
+        <v>1.030296058290541</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.433845839186426</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.25442574721762</v>
+        <v>-33.44832275230358</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3860816323387521</v>
+        <v>-0.4153036522814847</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7094822694568853</v>
+        <v>0.6506847373946935</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.545191786733588</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.21913526546409</v>
+        <v>-35.42601983496904</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.455719591153893</v>
+        <v>-0.4880575791729564</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5199319089143752</v>
+        <v>0.4533968258727234</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.622286807203487</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.03041608670836</v>
+        <v>-37.25227825066425</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8154567963360002</v>
+        <v>-0.8394288028392006</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05133763328149999</v>
+        <v>-0.1093234425675047</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.652155851166365</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.33341761808219</v>
+        <v>-39.55715198134445</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7228549383364717</v>
+        <v>-0.7469971447766146</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.5875721730729163</v>
+        <v>-0.6471683356084533</v>
       </c>
     </row>
   </sheetData>
